--- a/18.xlsx
+++ b/18.xlsx
@@ -1381,10 +1381,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1402,7 +1402,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1419,10 +1419,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1440,7 +1440,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1457,10 +1457,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1478,7 +1478,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1495,10 +1495,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1516,7 +1516,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1533,10 +1533,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1554,7 +1554,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1571,10 +1571,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1592,7 +1592,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1609,10 +1609,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1630,7 +1630,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1647,10 +1647,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1668,7 +1668,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1685,10 +1685,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1706,7 +1706,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1723,10 +1723,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1744,7 +1744,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1761,10 +1761,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1782,7 +1782,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1799,10 +1799,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1820,7 +1820,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1837,10 +1837,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1858,7 +1858,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1875,10 +1875,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1896,7 +1896,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1913,10 +1913,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1934,7 +1934,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1951,10 +1951,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1972,7 +1972,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1989,10 +1989,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2010,7 +2010,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2027,10 +2027,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2048,7 +2048,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2065,10 +2065,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2086,7 +2086,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2103,10 +2103,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2124,7 +2124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2141,10 +2141,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2162,7 +2162,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2179,10 +2179,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2200,7 +2200,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2217,10 +2217,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2238,7 +2238,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2255,10 +2255,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2867721</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1280160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2276,7 +2276,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2867721" cy="1280160"/>
+          <a:ext cx="2667648" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2578,7 +2578,7 @@
     <col min="21" max="21" customWidth="true" width="40.375" collapsed="true"/>
     <col min="22" max="22" customWidth="true" width="7.0" collapsed="true"/>
     <col min="23" max="23" customWidth="true" width="37.25" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="40.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:24">
